--- a/工作时间记录.xlsx
+++ b/工作时间记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="0" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,11 +90,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Add problem &lt;Assign cookies&gt;, solution and test cases</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Null</t>
+    <t>4h</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -108,8 +104,153 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>：00-24：00</t>
-    </r>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>00-24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>00-02</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Write the LFU custom match</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>00-13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finish the LFU custom match</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:00-9:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix the problems of &lt;Assign cookies&gt; and &lt;132 pattern&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add problem &lt;Assign cookies&gt; and &lt;132 pattern&gt;, solution and test cases</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rewrite the problem &lt;LFU Cache&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:00-14:30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -117,7 +258,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -144,6 +285,24 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -162,15 +321,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -499,10 +667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.33203125" defaultRowHeight="28" customHeight="1" x14ac:dyDescent="0"/>
@@ -533,13 +701,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="28" customHeight="1">
@@ -547,82 +715,121 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="28" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="28" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="28" customHeight="1">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
+      <c r="B6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="28" customHeight="1">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="B7" s="2"/>
     </row>
     <row r="8" spans="1:4" ht="28" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="28" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="28" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="28" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="28" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="28" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="28" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="28" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="28" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="28" customHeight="1">
       <c r="A17" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="28" customHeight="1">
+      <c r="A18" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="28" customHeight="1">
+      <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/工作时间记录.xlsx
+++ b/工作时间记录.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,14 +83,6 @@
   </si>
   <si>
     <t>Work Content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4h</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -174,10 +166,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Write the LFU custom match</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -230,10 +218,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.5h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Fix the problems of &lt;Assign cookies&gt; and &lt;132 pattern&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -242,15 +226,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Rewrite the problem &lt;LFU Cache&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>14:00-14:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21:30-1:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rewrite / Test the problem &lt;LFU Cache&gt;, &lt;Assign cookies&gt; and &lt;132 pattern&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rewrite  the problem &lt;LFU Cache&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -321,24 +309,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -667,7 +662,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
@@ -677,7 +672,7 @@
   <cols>
     <col min="1" max="1" width="20.33203125" style="1"/>
     <col min="2" max="2" width="41.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" style="1"/>
+    <col min="3" max="3" width="20.33203125" style="3"/>
     <col min="4" max="4" width="90.6640625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="20.33203125" style="1"/>
   </cols>
@@ -689,7 +684,7 @@
       <c r="B1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -701,13 +696,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="C2" s="3">
+        <v>4</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="28" customHeight="1">
@@ -715,13 +710,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="C3" s="3">
+        <v>4</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="28" customHeight="1">
@@ -729,13 +724,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="28" customHeight="1">
@@ -743,86 +738,92 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="28" customHeight="1">
       <c r="B6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="28" customHeight="1">
-      <c r="B7" s="2"/>
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="28" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="28" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="28" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="28" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="28" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="28" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="28" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="28" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="28" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="28" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="28" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="28" customHeight="1">
-      <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
     </row>

--- a/工作时间记录.xlsx
+++ b/工作时间记录.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -239,6 +239,14 @@
   </si>
   <si>
     <t>Rewrite  the problem &lt;LFU Cache&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20:00-20:30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -309,8 +317,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -326,14 +336,16 @@
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="9">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -665,7 +677,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.33203125" defaultRowHeight="28" customHeight="1" x14ac:dyDescent="0"/>
@@ -776,10 +788,22 @@
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B8" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="28" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="28" customHeight="1">

--- a/工作时间记录.xlsx
+++ b/工作时间记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29220" windowHeight="18500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -247,6 +247,10 @@
   </si>
   <si>
     <t>20:00-20:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:30-2:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -317,8 +321,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -336,16 +344,20 @@
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="13">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -674,10 +686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.33203125" defaultRowHeight="28" customHeight="1" x14ac:dyDescent="0"/>
@@ -791,6 +803,9 @@
       <c r="B8" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="28" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -807,47 +822,58 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="28" customHeight="1">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
+      <c r="B10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="28" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="28" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="28" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="28" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="28" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="28" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="28" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="28" customHeight="1">
       <c r="A18" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="28" customHeight="1">
+      <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
     </row>

--- a/工作时间记录.xlsx
+++ b/工作时间记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29220" windowHeight="18500" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -251,6 +251,14 @@
   </si>
   <si>
     <t>1:30-2:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:30-10:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Review the contest questions</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -321,8 +329,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -344,7 +356,7 @@
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="17">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
@@ -352,12 +364,16 @@
     <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -689,7 +705,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.33203125" defaultRowHeight="28" customHeight="1" x14ac:dyDescent="0"/>
@@ -836,30 +852,69 @@
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="28" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="28" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:4" ht="28" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="28" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:4" ht="28" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="28" customHeight="1">

--- a/工作时间记录.xlsx
+++ b/工作时间记录.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -210,55 +210,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>9:00-9:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix the problems of &lt;Assign cookies&gt; and &lt;132 pattern&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add problem &lt;Assign cookies&gt; and &lt;132 pattern&gt;, solution and test cases</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:00-14:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21:30-1:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rewrite / Test the problem &lt;LFU Cache&gt;, &lt;Assign cookies&gt; and &lt;132 pattern&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rewrite  the problem &lt;LFU Cache&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20:00-20:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:30-2:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:30-10:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Review three questions of the contest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:30-17:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Review the question of Problem 432</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Finish the LFU custom match</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9:00-9:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fix the problems of &lt;Assign cookies&gt; and &lt;132 pattern&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Add problem &lt;Assign cookies&gt; and &lt;132 pattern&gt;, solution and test cases</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14:00-14:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21:30-1:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rewrite / Test the problem &lt;LFU Cache&gt;, &lt;Assign cookies&gt; and &lt;132 pattern&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rewrite  the problem &lt;LFU Cache&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20:00-20:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:30-2:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9:30-10:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Review the contest questions</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -329,8 +341,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -356,7 +372,7 @@
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="21">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
@@ -366,6 +382,8 @@
     <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -374,6 +392,8 @@
     <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -702,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.33203125" defaultRowHeight="28" customHeight="1" x14ac:dyDescent="0"/>
@@ -742,7 +762,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="28" customHeight="1">
@@ -770,7 +790,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="28" customHeight="1">
@@ -778,24 +798,24 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="3">
         <v>0.5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="28" customHeight="1">
       <c r="B6" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="3">
         <v>0.5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="28" customHeight="1">
@@ -803,13 +823,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
         <v>3.5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="28" customHeight="1">
@@ -817,7 +837,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="3">
         <v>0</v>
@@ -828,24 +848,24 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="3">
         <v>0.5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="28" customHeight="1">
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="3">
         <v>0.5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="28" customHeight="1">
@@ -853,7 +873,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="3">
         <v>0</v>
@@ -864,7 +884,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="3">
         <v>0</v>
@@ -875,7 +895,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="3">
         <v>0</v>
@@ -886,7 +906,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" s="3">
         <v>0</v>
@@ -897,7 +917,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" s="3">
         <v>0</v>
@@ -908,28 +928,58 @@
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="28" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="28" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" ht="28" customHeight="1">
+      <c r="B17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="28" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" ht="28" customHeight="1">
+      <c r="B18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="28" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="28" customHeight="1">
+      <c r="A20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="3">
+        <f>SUM(C2:C19)</f>
+        <v>18.5</v>
       </c>
     </row>
   </sheetData>

--- a/工作时间记录.xlsx
+++ b/工作时间记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30940" windowHeight="19520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -271,6 +271,14 @@
   </si>
   <si>
     <t>Finish the LFU custom match</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:00-14:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Review the two questions</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -725,7 +733,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.33203125" defaultRowHeight="28" customHeight="1" x14ac:dyDescent="0"/>
@@ -956,10 +964,13 @@
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C18" s="3">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="28" customHeight="1">
@@ -979,7 +990,7 @@
       </c>
       <c r="C20" s="3">
         <f>SUM(C2:C19)</f>
-        <v>18.5</v>
+        <v>20.5</v>
       </c>
     </row>
   </sheetData>
